--- a/labels_FontiersUnsupervised.xlsx
+++ b/labels_FontiersUnsupervised.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Desktop\CompBioMed2024_Seminars\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlapairesramis/Desktop/3rd GEBM/3er trimestre/Ciència de dades/PROJECT/compbiomed-groupD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F893B08F-4E1C-45A4-A129-163A066C331D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9267C882-ED97-9448-869D-661868292A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="945" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{DC28E907-C9A6-4B0D-8E30-34356DE62156}"/>
+    <workbookView xWindow="1660" yWindow="940" windowWidth="27680" windowHeight="15460" xr2:uid="{DC28E907-C9A6-4B0D-8E30-34356DE62156}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="160">
   <si>
     <t>LVOT cúspide derecha (cerca de la comisura)</t>
   </si>
@@ -535,6 +535,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -622,7 +623,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -920,19 +921,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE15F06-354D-4BD2-955B-001FD543CAD5}">
   <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" customWidth="1"/>
+    <col min="1" max="1" width="53.5" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -946,7 +947,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -960,7 +961,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -970,11 +971,8 @@
       <c r="C3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -988,7 +986,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1002,7 +1000,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1016,7 +1014,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1030,7 +1028,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1044,7 +1042,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1058,7 +1056,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1072,7 +1070,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1086,7 +1084,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1100,7 +1098,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1114,7 +1112,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1128,7 +1126,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1142,7 +1140,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1156,7 +1154,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1170,7 +1168,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1184,7 +1182,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1198,7 +1196,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1212,7 +1210,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1226,7 +1224,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1240,7 +1238,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1254,7 +1252,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1268,7 +1266,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1282,7 +1280,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1296,7 +1294,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1310,7 +1308,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1324,7 +1322,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1338,7 +1336,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1352,7 +1350,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1366,7 +1364,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1380,7 +1378,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -1394,7 +1392,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1408,7 +1406,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1422,7 +1420,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1436,7 +1434,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -1450,7 +1448,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -1464,7 +1462,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -1478,7 +1476,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -1492,7 +1490,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -1506,7 +1504,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1520,7 +1518,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -1534,7 +1532,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -1548,7 +1546,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -1562,7 +1560,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -1576,7 +1574,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1590,7 +1588,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -1604,7 +1602,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -1618,7 +1616,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -1632,7 +1630,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -1646,7 +1644,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -1660,7 +1658,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -1674,7 +1672,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -1688,7 +1686,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -1702,7 +1700,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -1716,7 +1714,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -1730,7 +1728,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -1744,7 +1742,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -1758,7 +1756,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -1772,7 +1770,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -1786,7 +1784,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -1800,7 +1798,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -1814,7 +1812,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -1828,7 +1826,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -1842,7 +1840,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -1856,7 +1854,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -1870,7 +1868,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -1884,7 +1882,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -1898,7 +1896,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -1912,7 +1910,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -1926,7 +1924,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -1940,7 +1938,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -1954,7 +1952,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -1968,7 +1966,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -1982,7 +1980,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -1996,7 +1994,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -2010,7 +2008,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -2024,7 +2022,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -2038,7 +2036,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -2052,7 +2050,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -2066,7 +2064,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -2080,7 +2078,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -2094,7 +2092,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -2108,7 +2106,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -2122,7 +2120,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -2136,7 +2134,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -2150,7 +2148,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -2164,7 +2162,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>33</v>
       </c>
@@ -2178,7 +2176,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -2192,7 +2190,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>34</v>
       </c>
@@ -2206,7 +2204,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>35</v>
       </c>
@@ -2220,7 +2218,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>36</v>
       </c>
@@ -2234,7 +2232,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>37</v>
       </c>
@@ -2248,7 +2246,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>38</v>
       </c>
@@ -2262,7 +2260,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>39</v>
       </c>
@@ -2276,7 +2274,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>40</v>
       </c>
@@ -2290,7 +2288,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>41</v>
       </c>
@@ -2304,7 +2302,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>42</v>
       </c>
@@ -2318,7 +2316,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>43</v>
       </c>
@@ -2332,7 +2330,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>44</v>
       </c>
@@ -2346,7 +2344,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>45</v>
       </c>
@@ -2360,7 +2358,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>46</v>
       </c>
@@ -2374,7 +2372,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>18</v>
       </c>
@@ -2388,7 +2386,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -2402,7 +2400,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>18</v>
       </c>
@@ -2416,7 +2414,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>47</v>
       </c>
@@ -2430,7 +2428,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>48</v>
       </c>
@@ -2444,7 +2442,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>49</v>
       </c>
@@ -2458,7 +2456,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>50</v>
       </c>
@@ -2472,7 +2470,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>51</v>
       </c>
@@ -2486,7 +2484,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>52</v>
       </c>
@@ -2500,7 +2498,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>52</v>
       </c>
@@ -2514,7 +2512,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>51</v>
       </c>
@@ -2528,7 +2526,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>51</v>
       </c>
@@ -2542,7 +2540,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>53</v>
       </c>
@@ -2556,7 +2554,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>54</v>
       </c>
@@ -2570,7 +2568,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>18</v>
       </c>
@@ -2584,7 +2582,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>55</v>
       </c>
@@ -2598,7 +2596,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>52</v>
       </c>
@@ -2624,13 +2622,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D39310-9AE1-4201-B0D5-49A1ABDB80F5}">
   <dimension ref="A1:D296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>155</v>
       </c>
@@ -2644,7 +2647,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2658,12 +2661,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2677,7 +2680,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2691,7 +2694,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2705,12 +2708,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2724,7 +2727,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2738,7 +2741,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2752,7 +2755,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2766,7 +2769,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2780,7 +2783,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2794,7 +2797,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -2808,7 +2811,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -2822,7 +2825,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -2836,7 +2839,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -2850,7 +2853,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2864,7 +2867,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
@@ -2878,7 +2881,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2892,7 +2895,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
@@ -2906,7 +2909,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2920,7 +2923,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -2934,7 +2937,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2948,7 +2951,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0</v>
       </c>
@@ -2962,7 +2965,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2976,7 +2979,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3004,7 +3007,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3018,7 +3021,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0</v>
       </c>
@@ -3032,7 +3035,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3046,7 +3049,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -3060,7 +3063,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0</v>
       </c>
@@ -3071,7 +3074,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -3085,7 +3088,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -3099,7 +3102,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -3113,7 +3116,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -3127,7 +3130,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -3141,7 +3144,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -3155,7 +3158,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0</v>
       </c>
@@ -3169,7 +3172,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3183,7 +3186,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3197,7 +3200,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0</v>
       </c>
@@ -3208,7 +3211,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3219,7 +3222,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3233,7 +3236,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0</v>
       </c>
@@ -3244,7 +3247,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -3258,7 +3261,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0</v>
       </c>
@@ -3272,7 +3275,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0</v>
       </c>
@@ -3286,7 +3289,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
@@ -3300,7 +3303,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3314,7 +3317,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0</v>
       </c>
@@ -3328,7 +3331,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3342,7 +3345,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0</v>
       </c>
@@ -3356,7 +3359,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0</v>
       </c>
@@ -3367,7 +3370,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0</v>
       </c>
@@ -3378,7 +3381,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
@@ -3392,7 +3395,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0</v>
       </c>
@@ -3406,7 +3409,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -3420,7 +3423,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0</v>
       </c>
@@ -3431,7 +3434,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1</v>
       </c>
@@ -3445,7 +3448,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
@@ -3459,7 +3462,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0</v>
       </c>
@@ -3470,7 +3473,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1</v>
       </c>
@@ -3484,7 +3487,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1</v>
       </c>
@@ -3498,7 +3501,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1</v>
       </c>
@@ -3512,7 +3515,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1</v>
       </c>
@@ -3526,7 +3529,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1</v>
       </c>
@@ -3540,7 +3543,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1</v>
       </c>
@@ -3554,7 +3557,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1</v>
       </c>
@@ -3568,7 +3571,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1</v>
       </c>
@@ -3582,7 +3585,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0</v>
       </c>
@@ -3596,7 +3599,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1</v>
       </c>
@@ -3610,7 +3613,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0</v>
       </c>
@@ -3624,7 +3627,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3638,7 +3641,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1</v>
       </c>
@@ -3652,7 +3655,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1</v>
       </c>
@@ -3666,7 +3669,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1</v>
       </c>
@@ -3680,7 +3683,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1</v>
       </c>
@@ -3694,7 +3697,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3708,7 +3711,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3722,7 +3725,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3736,7 +3739,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0</v>
       </c>
@@ -3750,7 +3753,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0</v>
       </c>
@@ -3764,7 +3767,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3778,7 +3781,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3792,7 +3795,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1</v>
       </c>
@@ -3806,7 +3809,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3820,7 +3823,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3834,7 +3837,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3848,7 +3851,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3862,7 +3865,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3876,7 +3879,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0</v>
       </c>
@@ -3887,7 +3890,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0</v>
       </c>
@@ -3901,7 +3904,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3915,7 +3918,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3929,7 +3932,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3943,7 +3946,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3957,7 +3960,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3971,7 +3974,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0</v>
       </c>
@@ -3985,7 +3988,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3999,7 +4002,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0</v>
       </c>
@@ -4013,7 +4016,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1</v>
       </c>
@@ -4027,7 +4030,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0</v>
       </c>
@@ -4041,7 +4044,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1</v>
       </c>
@@ -4055,7 +4058,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1</v>
       </c>
@@ -4069,7 +4072,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1</v>
       </c>
@@ -4083,7 +4086,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1</v>
       </c>
@@ -4097,7 +4100,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1</v>
       </c>
@@ -4111,7 +4114,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1</v>
       </c>
@@ -4125,7 +4128,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1</v>
       </c>
@@ -4139,7 +4142,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1</v>
       </c>
@@ -4153,7 +4156,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1</v>
       </c>
@@ -4167,7 +4170,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1</v>
       </c>
@@ -4181,7 +4184,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1</v>
       </c>
@@ -4195,7 +4198,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1</v>
       </c>
@@ -4209,7 +4212,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1</v>
       </c>
@@ -4223,7 +4226,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1</v>
       </c>
@@ -4237,7 +4240,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1</v>
       </c>
@@ -4251,7 +4254,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1</v>
       </c>
@@ -4265,7 +4268,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0</v>
       </c>
@@ -4279,7 +4282,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1</v>
       </c>
@@ -4293,12 +4296,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0</v>
       </c>
@@ -4312,7 +4315,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1</v>
       </c>
@@ -4326,7 +4329,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1</v>
       </c>
@@ -4340,7 +4343,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0</v>
       </c>
@@ -4354,7 +4357,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1</v>
       </c>
@@ -4368,7 +4371,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0</v>
       </c>
@@ -4382,7 +4385,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1</v>
       </c>
@@ -4396,7 +4399,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1</v>
       </c>
@@ -4410,7 +4413,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1</v>
       </c>
@@ -4424,7 +4427,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4438,7 +4441,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0</v>
       </c>
@@ -4452,7 +4455,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1</v>
       </c>
@@ -4466,7 +4469,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1</v>
       </c>
@@ -4480,7 +4483,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0</v>
       </c>
@@ -4494,7 +4497,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0</v>
       </c>
@@ -4508,7 +4511,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1</v>
       </c>
@@ -4522,7 +4525,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1</v>
       </c>
@@ -4536,7 +4539,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1</v>
       </c>
@@ -4550,7 +4553,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0</v>
       </c>
@@ -4561,7 +4564,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4575,7 +4578,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1</v>
       </c>
@@ -4589,7 +4592,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4603,7 +4606,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0</v>
       </c>
@@ -4617,7 +4620,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0</v>
       </c>
@@ -4628,7 +4631,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1</v>
       </c>
@@ -4642,7 +4645,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1</v>
       </c>
@@ -4656,7 +4659,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1</v>
       </c>
@@ -4670,7 +4673,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1</v>
       </c>
@@ -4684,7 +4687,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0</v>
       </c>
@@ -4698,7 +4701,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1</v>
       </c>
@@ -4712,7 +4715,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1</v>
       </c>
@@ -4726,7 +4729,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0</v>
       </c>
@@ -4740,7 +4743,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1</v>
       </c>
@@ -4754,7 +4757,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0</v>
       </c>
@@ -4765,7 +4768,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1</v>
       </c>
@@ -4779,7 +4782,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1</v>
       </c>
@@ -4793,7 +4796,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0</v>
       </c>
@@ -4804,7 +4807,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1</v>
       </c>
@@ -4818,7 +4821,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1</v>
       </c>
@@ -4832,7 +4835,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1</v>
       </c>
@@ -4846,7 +4849,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1</v>
       </c>
@@ -4860,7 +4863,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1</v>
       </c>
@@ -4874,7 +4877,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0</v>
       </c>
@@ -4888,7 +4891,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1</v>
       </c>
@@ -4902,7 +4905,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0</v>
       </c>
@@ -4916,7 +4919,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0</v>
       </c>
@@ -4930,7 +4933,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0</v>
       </c>
@@ -4944,7 +4947,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1</v>
       </c>
@@ -4958,7 +4961,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0</v>
       </c>
@@ -4972,7 +4975,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0</v>
       </c>
@@ -4986,7 +4989,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1</v>
       </c>
@@ -5000,7 +5003,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1</v>
       </c>
@@ -5014,7 +5017,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0</v>
       </c>
@@ -5028,7 +5031,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1</v>
       </c>
@@ -5042,7 +5045,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1</v>
       </c>
@@ -5056,7 +5059,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0</v>
       </c>
@@ -5070,7 +5073,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1</v>
       </c>
@@ -5084,7 +5087,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0</v>
       </c>
@@ -5098,7 +5101,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1</v>
       </c>
@@ -5112,7 +5115,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1</v>
       </c>
@@ -5126,7 +5129,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0</v>
       </c>
@@ -5140,7 +5143,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1</v>
       </c>
@@ -5154,7 +5157,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0</v>
       </c>
@@ -5168,7 +5171,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0</v>
       </c>
@@ -5182,7 +5185,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1</v>
       </c>
@@ -5196,7 +5199,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1</v>
       </c>
@@ -5210,7 +5213,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1</v>
       </c>
@@ -5224,7 +5227,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0</v>
       </c>
@@ -5238,7 +5241,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0</v>
       </c>
@@ -5252,7 +5255,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1</v>
       </c>
@@ -5266,12 +5269,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D194" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0</v>
       </c>
@@ -5285,7 +5288,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>1</v>
       </c>
@@ -5299,7 +5302,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1</v>
       </c>
@@ -5313,7 +5316,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0</v>
       </c>
@@ -5327,7 +5330,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1</v>
       </c>
@@ -5341,7 +5344,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0</v>
       </c>
@@ -5352,7 +5355,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1</v>
       </c>
@@ -5366,7 +5369,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0</v>
       </c>
@@ -5380,7 +5383,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0</v>
       </c>
@@ -5394,7 +5397,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>1</v>
       </c>
@@ -5408,7 +5411,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0</v>
       </c>
@@ -5422,7 +5425,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0</v>
       </c>
@@ -5436,7 +5439,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>0</v>
       </c>
@@ -5450,7 +5453,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0</v>
       </c>
@@ -5464,7 +5467,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>0</v>
       </c>
@@ -5478,7 +5481,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1</v>
       </c>
@@ -5492,7 +5495,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0</v>
       </c>
@@ -5506,7 +5509,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>0</v>
       </c>
@@ -5520,7 +5523,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0</v>
       </c>
@@ -5534,7 +5537,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0</v>
       </c>
@@ -5548,7 +5551,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>1</v>
       </c>
@@ -5562,7 +5565,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>1</v>
       </c>
@@ -5576,7 +5579,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0</v>
       </c>
@@ -5590,7 +5593,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>1</v>
       </c>
@@ -5604,12 +5607,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D219" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0</v>
       </c>
@@ -5623,7 +5626,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0</v>
       </c>
@@ -5634,7 +5637,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>0</v>
       </c>
@@ -5648,7 +5651,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>1</v>
       </c>
@@ -5662,7 +5665,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0</v>
       </c>
@@ -5676,7 +5679,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>1</v>
       </c>
@@ -5690,7 +5693,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0</v>
       </c>
@@ -5704,7 +5707,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>1</v>
       </c>
@@ -5718,7 +5721,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0</v>
       </c>
@@ -5732,7 +5735,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>1</v>
       </c>
@@ -5746,7 +5749,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>1</v>
       </c>
@@ -5760,7 +5763,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>1</v>
       </c>
@@ -5774,7 +5777,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>1</v>
       </c>
@@ -5788,7 +5791,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>1</v>
       </c>
@@ -5802,7 +5805,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>0</v>
       </c>
@@ -5816,7 +5819,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>0</v>
       </c>
@@ -5830,7 +5833,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0</v>
       </c>
@@ -5844,7 +5847,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>0</v>
       </c>
@@ -5858,7 +5861,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>0</v>
       </c>
@@ -5872,7 +5875,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>1</v>
       </c>
@@ -5886,7 +5889,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>0</v>
       </c>
@@ -5900,7 +5903,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>1</v>
       </c>
@@ -5914,7 +5917,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1</v>
       </c>
@@ -5928,7 +5931,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>0</v>
       </c>
@@ -5942,7 +5945,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>0</v>
       </c>
@@ -5953,7 +5956,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>1</v>
       </c>
@@ -5967,7 +5970,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>1</v>
       </c>
@@ -5981,7 +5984,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>0</v>
       </c>
@@ -5995,7 +5998,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>0</v>
       </c>
@@ -6009,7 +6012,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>1</v>
       </c>
@@ -6023,7 +6026,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>0</v>
       </c>
@@ -6037,7 +6040,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>0</v>
       </c>
@@ -6051,7 +6054,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>0</v>
       </c>
@@ -6065,7 +6068,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>0</v>
       </c>
@@ -6076,7 +6079,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>0</v>
       </c>
@@ -6090,7 +6093,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>0</v>
       </c>
@@ -6104,7 +6107,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>1</v>
       </c>
@@ -6118,7 +6121,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>1</v>
       </c>
@@ -6132,7 +6135,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>1</v>
       </c>
@@ -6146,7 +6149,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>1</v>
       </c>
@@ -6160,7 +6163,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>1</v>
       </c>
@@ -6174,7 +6177,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>1</v>
       </c>
@@ -6188,7 +6191,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>0</v>
       </c>
@@ -6202,7 +6205,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>0</v>
       </c>
@@ -6213,7 +6216,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>1</v>
       </c>
@@ -6227,7 +6230,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>1</v>
       </c>
@@ -6241,7 +6244,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>1</v>
       </c>
@@ -6252,7 +6255,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>1</v>
       </c>
@@ -6266,7 +6269,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>1</v>
       </c>
@@ -6280,7 +6283,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>1</v>
       </c>
@@ -6294,7 +6297,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>1</v>
       </c>
@@ -6308,7 +6311,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>1</v>
       </c>
@@ -6322,7 +6325,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
         <v>18</v>
       </c>
@@ -6333,7 +6336,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>0</v>
       </c>
@@ -6347,7 +6350,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>1</v>
       </c>
@@ -6361,7 +6364,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>1</v>
       </c>
@@ -6375,7 +6378,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>1</v>
       </c>
@@ -6389,7 +6392,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>1</v>
       </c>
@@ -6403,7 +6406,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>1</v>
       </c>
@@ -6417,7 +6420,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>1</v>
       </c>
@@ -6428,7 +6431,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>0</v>
       </c>
@@ -6442,7 +6445,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>1</v>
       </c>
@@ -6456,7 +6459,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>0</v>
       </c>
@@ -6470,7 +6473,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>1</v>
       </c>
@@ -6484,7 +6487,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>0</v>
       </c>
@@ -6498,7 +6501,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>1</v>
       </c>
@@ -6512,7 +6515,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>1</v>
       </c>
@@ -6526,7 +6529,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>1</v>
       </c>
@@ -6540,7 +6543,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>1</v>
       </c>
@@ -6554,7 +6557,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>1</v>
       </c>
@@ -6568,7 +6571,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>1</v>
       </c>
@@ -6582,7 +6585,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>0</v>
       </c>
@@ -6596,7 +6599,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>1</v>
       </c>
@@ -6610,7 +6613,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>1</v>
       </c>
@@ -6624,7 +6627,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>1</v>
       </c>
@@ -6638,7 +6641,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>1</v>
       </c>
@@ -6652,7 +6655,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>1</v>
       </c>
